--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,100 +456,115 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>세부종류</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>전화번호</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>상담내용</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>상담중/상담완료</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>상담내용</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7/14</t>
+          <t>7/17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7/20</t>
+          <t>2025/10/4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>테스트</t>
+          <t>최형군</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>비즈니스</t>
+          <t>웨딩</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>010-1111-1111</t>
+          <t>웨딩</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>01024482387</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>상담중</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7/13</t>
+          <t>7/21/5:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/21</t>
+          <t>2025/가을</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>●●●</t>
+          <t>조영민</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>돌/가족행사</t>
+          <t>웨딩</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>010-1111-1112</t>
+          <t>웨딩</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>상담완료</t>
+          <t>01028845316</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7/10</t>
+          <t>7/23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7/22</t>
+          <t>2025/3~5월</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ㅇㅇㅇㅇㄴㅇㅁㄴㅇ</t>
+          <t>임강민</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,312 +574,146 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>010-0000-0000</t>
+          <t>웨딩</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>상담완료</t>
+          <t>01031662299</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7/15</t>
+          <t>2024. 7. 15 오전 10:00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7/23</t>
+          <t>2024-11-23 13:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>□□s□</t>
+          <t>최가영</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>세미나</t>
+          <t>돌/가족행사</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>010-1111-1113</t>
+          <t>돌잔치</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>01092700794</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>상담중</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>□□d□</t>
+          <t>박가영</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>□c□□</t>
+          <t>김민영</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>□□v□</t>
+          <t>양대근</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>□sq□□</t>
+          <t>김윤아</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>□□b□</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>□□s□</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>□□z□</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>7/15</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>□□x□</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>세미나</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>010-1111-1113</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>행사 종류</t>
+          <t>행사종류</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -476,40 +476,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7/17</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025/10/4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>최형군</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>웨딩</t>
+          <t>돌/가족행사</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>웨딩</t>
+          <t>ㅁㄴㅇㅁㅇㅁㄴㅇ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01024482387</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>ㅁㄴㅇㄴㅁㅇㅇ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㅁㄴㅇ</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>상담중</t>
+          <t>상담완료</t>
         </is>
       </c>
     </row>
@@ -531,23 +523,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>웨딩</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>웨딩</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>01028845316</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㅁㅇㅁ</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>상담중</t>
+          <t>상담완료</t>
         </is>
       </c>
     </row>
@@ -569,7 +565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>웨딩</t>
+          <t>돌/가족행사</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -585,7 +581,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>상담중</t>
+          <t>상담완료</t>
         </is>
       </c>
     </row>
@@ -623,7 +619,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>상담중</t>
+          <t>상담완료</t>
         </is>
       </c>
     </row>
@@ -635,11 +631,7 @@
           <t>박가영</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -657,11 +649,7 @@
           <t>김민영</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -679,11 +667,7 @@
           <t>양대근</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -701,11 +685,7 @@
           <t>김윤아</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -715,6 +695,72 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>최가영</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ㅇㅇㅇ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>상담중</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,330 +436,162 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>상담일자</t>
+          <t>상담일</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>행사일자</t>
+          <t>행사종류</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>고객명</t>
+          <t>구분</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>행사종류</t>
+          <t>행사날짜</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>세부종류</t>
+          <t>예상인원</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>예약자</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>연락처</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>계약중/계약완료</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>문자발송</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>상담내용</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>상담중/상담완료</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>시간</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7/13</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>웨딩</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>결혼식</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>돌/가족행사</t>
+          <t>7/20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ㅁㄴㅇㅁㅇㅁㄴㅇ</t>
+          <t>10명</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ㅁㄴㅇㄴㅁㅇㅇ</t>
+          <t>○○○</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ㅁㄴㅇㅁㄴㅇ</t>
+          <t>010-1111-1111</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>계약완료</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>~~~ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7/21/5:00</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025/가을</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>조영민</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>돌/가족행사</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>웨딩</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01028845316</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ㅁㄴㅇㅁㅇㅁ</t>
-        </is>
-      </c>
+          <t>최가영</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>상담완료</t>
-        </is>
-      </c>
+          <t>계약중</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7/23</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025/3~5월</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>임강민</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>돌/가족행사</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>웨딩</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01031662299</t>
+          <t>양대근</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024. 7. 15 오전 10:00:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-11-23 13:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>최가영</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>돌잔치</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>01092700794</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>상담완료</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>박가영</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>김민영</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>양대근</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>김윤아</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>최가영</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ㅇㅇㅇ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>테스트</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>상담중</t>
-        </is>
-      </c>
+          <t>계약중</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -1,37 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\interncustomer\urban_brook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5DE131-C36E-42DD-8DD1-74F4B9928B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t>상담일</t>
+  </si>
+  <si>
+    <t>행사종류</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>행사날짜</t>
+  </si>
+  <si>
+    <t>예상인원</t>
+  </si>
+  <si>
+    <t>예약자</t>
+  </si>
+  <si>
+    <t>연락처</t>
+  </si>
+  <si>
+    <t>계약중/계약완료</t>
+  </si>
+  <si>
+    <t>문자발송</t>
+  </si>
+  <si>
+    <t>상담내용</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>7/13</t>
+  </si>
+  <si>
+    <t>웨딩</t>
+  </si>
+  <si>
+    <t>결혼식</t>
+  </si>
+  <si>
+    <t>7/20</t>
+  </si>
+  <si>
+    <t>10명</t>
+  </si>
+  <si>
+    <t>○○○</t>
+  </si>
+  <si>
+    <t>계약완료</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>~~~ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
+  </si>
+  <si>
+    <t>돌/가족행사</t>
+  </si>
+  <si>
+    <t>최가영</t>
+  </si>
+  <si>
+    <t>계약중</t>
+  </si>
+  <si>
+    <t>양대근</t>
+  </si>
+  <si>
+    <t>01011111111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +142,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,180 +470,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>상담일</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>행사종류</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>행사날짜</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>예상인원</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>예약자</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>연락처</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>계약중/계약완료</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>문자발송</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>상담내용</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>시간</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7/13</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>웨딩</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>결혼식</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7/20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10명</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>○○○</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>010-1111-1111</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>계약완료</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>~~~ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>최가영</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>계약중</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>양대근</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>계약중</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\interncustomer\urban_brook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5DE131-C36E-42DD-8DD1-74F4B9928B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>상담일</t>
-  </si>
-  <si>
-    <t>행사종류</t>
-  </si>
-  <si>
-    <t>구분</t>
-  </si>
-  <si>
-    <t>행사날짜</t>
-  </si>
-  <si>
-    <t>예상인원</t>
-  </si>
-  <si>
-    <t>예약자</t>
-  </si>
-  <si>
-    <t>연락처</t>
-  </si>
-  <si>
-    <t>계약중/계약완료</t>
-  </si>
-  <si>
-    <t>문자발송</t>
-  </si>
-  <si>
-    <t>상담내용</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>7/13</t>
-  </si>
-  <si>
-    <t>웨딩</t>
-  </si>
-  <si>
-    <t>결혼식</t>
-  </si>
-  <si>
-    <t>7/20</t>
-  </si>
-  <si>
-    <t>10명</t>
-  </si>
-  <si>
-    <t>○○○</t>
-  </si>
-  <si>
-    <t>계약완료</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>~~~ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
-  </si>
-  <si>
-    <t>돌/가족행사</t>
-  </si>
-  <si>
-    <t>최가영</t>
-  </si>
-  <si>
-    <t>계약중</t>
-  </si>
-  <si>
-    <t>양대근</t>
-  </si>
-  <si>
-    <t>01011111111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,47 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,109 +420,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="9" style="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>상담일</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>행사종류</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>행사날짜</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>예상인원</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>예약자</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>연락처</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>계약중/계약완료</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>문자발송</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>상담내용</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7/13</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>웨딩</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>결혼식</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7/20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10명</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>○○○</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01011111111</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>계약완료</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>~~~ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ㅁㄴㅇㅁㄴㅇ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>최가영</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>계약중</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>돌/가족행사</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>양대근</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>계약중</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/urban_brook/customers.xlsx
+++ b/urban_brook/customers.xlsx
@@ -544,11 +544,7 @@
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>돌/가족행사</t>
@@ -559,71 +555,79 @@
           <t>ㅁㄴㅇㅁㄴㅇ</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>최가영</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>계약중</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>돌/가족행사</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>양대근</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>계약중</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
